--- a/Excel Files/Challenges/Excel BI/Excel Challenges/Excel Challenge 2.xlsx
+++ b/Excel Files/Challenges/Excel BI/Excel Challenges/Excel Challenge 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hogwarts299-my.sharepoint.com/personal/hermione_hogwarts299_onmicrosoft_com/Documents/Documents/Learnings/Excel BI Challenges/Excel Challenges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:11_{F4BBB4B0-B7BE-415F-8214-325F4778354C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60C39EB7-C535-4BB7-A499-1CBCD50015D4}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:11_{F4BBB4B0-B7BE-415F-8214-325F4778354C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3881E75-DDDC-46DB-A5AD-5F4620D5AA7C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Challenge</t>
   </si>
@@ -94,13 +94,10 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Provide a formula to sum last 3 non-zeros values in range</t>
+    <t>https://lnkd.in/dtw7Ni5u</t>
   </si>
   <si>
-    <t>A2:A10.</t>
-  </si>
-  <si>
-    <t>https://lnkd.in/dtw7Ni5u</t>
+    <t>Provide a formula to sum last 3 non-zeros values in the range.</t>
   </si>
 </sst>
 </file>
@@ -770,57 +767,54 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>7</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>15</v>
       </c>
+      <c r="F7" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>20</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
+      <c r="F8" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>5</v>
+      <c r="F11" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>0</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -830,8 +824,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" xr:uid="{CD8153D6-607E-44FA-8C6A-37F5634A06FD}"/>
-    <hyperlink ref="F12" r:id="rId2" xr:uid="{B98FAAD7-F8E8-4AB4-98D4-F1FB8F581038}"/>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{CD8153D6-607E-44FA-8C6A-37F5634A06FD}"/>
+    <hyperlink ref="F11" r:id="rId2" xr:uid="{B98FAAD7-F8E8-4AB4-98D4-F1FB8F581038}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -926,7 +920,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E996C401-EBA3-4E73-A27A-BAB408CD93DF}">
   <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
